--- a/data/group_stage_betting_odds_final.xlsx
+++ b/data/group_stage_betting_odds_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Documents\GitHub\15095-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EAD58-BEEA-4B0C-A189-AE4F32107977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924EAF3-6E97-4DC4-9A77-CDCC6B75D13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{3A73DD24-DA5B-4C59-823B-E318CD97E5CB}"/>
   </bookViews>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422B0D2D-1841-4969-922B-B7B831847234}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -569,28 +569,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>7.19</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5494505494505495</v>
       </c>
       <c r="D2" s="2">
-        <v>3.57</v>
+        <v>2.95</v>
       </c>
       <c r="E2" s="2">
-        <v>0.44052863436123346</v>
+        <v>6.12</v>
       </c>
       <c r="F2" s="2">
-        <v>0.6941896024464832</v>
+        <v>0.64539007092198575</v>
       </c>
       <c r="G2" s="2">
-        <v>0.28011204481792717</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="H2" s="2">
-        <v>0.13908205841446453</v>
+        <v>0.16339869281045752</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -598,77 +598,77 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>0.5494505494505495</v>
+        <v>0.12004801920768307</v>
       </c>
       <c r="D3" s="2">
-        <v>2.95</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E3" s="2">
-        <v>6.12</v>
+        <v>24.52</v>
       </c>
       <c r="F3" s="2">
-        <v>0.64539007092198575</v>
+        <v>0.89281886387995701</v>
       </c>
       <c r="G3" s="2">
-        <v>0.33898305084745761</v>
+        <v>0.12180267965895249</v>
       </c>
       <c r="H3" s="2">
-        <v>0.16339869281045752</v>
+        <v>4.0783034257748776E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.12004801920768307</v>
+        <v>6.38</v>
       </c>
       <c r="D4" s="2">
-        <v>8.2100000000000009</v>
+        <v>3.88</v>
       </c>
       <c r="E4" s="2">
-        <v>24.52</v>
+        <v>0.42918454935622319</v>
       </c>
       <c r="F4" s="2">
-        <v>0.89281886387995701</v>
+        <v>0.6996996996996997</v>
       </c>
       <c r="G4" s="2">
-        <v>0.12180267965895249</v>
+        <v>0.25773195876288663</v>
       </c>
       <c r="H4" s="2">
-        <v>4.0783034257748776E-2</v>
+        <v>0.15673981191222572</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>2.02</v>
+        <v>0.90090090090090091</v>
       </c>
       <c r="D5" s="2">
-        <v>2.41</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>1.44</v>
+        <v>3.51</v>
       </c>
       <c r="F5" s="2">
-        <v>0.69444444444444442</v>
+        <v>0.52606635071090047</v>
       </c>
       <c r="G5" s="2">
-        <v>0.41493775933609955</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="H5" s="2">
-        <v>0.49504950495049505</v>
+        <v>0.28490028490028491</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -676,51 +676,51 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>0.90090090090090091</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="D6" s="2">
-        <v>2.4500000000000002</v>
+        <v>3.21</v>
       </c>
       <c r="E6" s="2">
-        <v>3.51</v>
+        <v>4.92</v>
       </c>
       <c r="F6" s="2">
-        <v>0.52606635071090047</v>
+        <v>0.63235294117647056</v>
       </c>
       <c r="G6" s="2">
-        <v>0.4081632653061224</v>
+        <v>0.3115264797507788</v>
       </c>
       <c r="H6" s="2">
-        <v>0.28490028490028491</v>
+        <v>0.2032520325203252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>0.58139534883720934</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="2">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="E7" s="2">
-        <v>4.92</v>
+        <v>6.6</v>
       </c>
       <c r="F7" s="2">
-        <v>0.63235294117647056</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G7" s="2">
-        <v>0.3115264797507788</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="H7" s="2">
-        <v>0.2032520325203252</v>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -728,51 +728,51 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>0.5</v>
+        <v>0.46948356807511737</v>
       </c>
       <c r="D8" s="2">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="E8" s="2">
-        <v>6.6</v>
+        <v>6.23</v>
       </c>
       <c r="F8" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.68051118210862616</v>
       </c>
       <c r="G8" s="2">
-        <v>0.3048780487804878</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="H8" s="2">
-        <v>0.15151515151515152</v>
+        <v>0.16051364365971107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="2">
-        <v>0.46948356807511737</v>
+        <v>7.93</v>
       </c>
       <c r="D9" s="2">
-        <v>3.57</v>
+        <v>4.32</v>
       </c>
       <c r="E9" s="2">
-        <v>6.23</v>
+        <v>0.35971223021582732</v>
       </c>
       <c r="F9" s="2">
-        <v>0.68051118210862616</v>
+        <v>0.73544973544973546</v>
       </c>
       <c r="G9" s="2">
-        <v>0.28011204481792717</v>
+        <v>0.23148148148148145</v>
       </c>
       <c r="H9" s="2">
-        <v>0.16051364365971107</v>
+        <v>0.12610340479192939</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -780,155 +780,155 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>7.93</v>
+        <v>4.3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.32</v>
+        <v>2.77</v>
       </c>
       <c r="E10" s="2">
-        <v>0.35971223021582732</v>
+        <v>0.70921985815602839</v>
       </c>
       <c r="F10" s="2">
-        <v>0.73544973544973546</v>
+        <v>0.58506224066390033</v>
       </c>
       <c r="G10" s="2">
-        <v>0.23148148148148145</v>
+        <v>0.36101083032490977</v>
       </c>
       <c r="H10" s="2">
-        <v>0.12610340479192939</v>
+        <v>0.23255813953488372</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>1.23</v>
+        <v>3.78</v>
       </c>
       <c r="D11" s="2">
-        <v>2.27</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E11" s="2">
-        <v>2.54</v>
+        <v>0.84033613445378152</v>
       </c>
       <c r="F11" s="2">
-        <v>0.39370078740157477</v>
+        <v>0.26455026455026459</v>
       </c>
       <c r="G11" s="2">
-        <v>0.44052863436123346</v>
+        <v>0.40160642570281119</v>
       </c>
       <c r="H11" s="2">
-        <v>0.81300813008130079</v>
+        <v>0.54337899543378987</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>3.78</v>
+        <v>22.79</v>
       </c>
       <c r="D12" s="2">
-        <v>2.4900000000000002</v>
+        <v>10.17</v>
       </c>
       <c r="E12" s="2">
-        <v>0.84033613445378152</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="2">
-        <v>0.26455026455026459</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G12" s="2">
-        <v>0.40160642570281119</v>
+        <v>9.8328416912487712E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>0.54337899543378987</v>
+        <v>4.3878894251864857E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>6.38</v>
+        <v>2.02</v>
       </c>
       <c r="D13" s="2">
-        <v>3.88</v>
+        <v>2.41</v>
       </c>
       <c r="E13" s="2">
-        <v>0.42918454935622319</v>
+        <v>1.44</v>
       </c>
       <c r="F13" s="2">
-        <v>0.6996996996996997</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="G13" s="2">
-        <v>0.25773195876288663</v>
+        <v>0.41493775933609955</v>
       </c>
       <c r="H13" s="2">
-        <v>0.15673981191222572</v>
+        <v>0.49504950495049505</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>0.58139534883720934</v>
+        <v>1.23</v>
       </c>
       <c r="D14" s="2">
-        <v>2.92</v>
+        <v>2.27</v>
       </c>
       <c r="E14" s="2">
-        <v>5.57</v>
+        <v>2.54</v>
       </c>
       <c r="F14" s="2">
-        <v>0.63235294117647056</v>
+        <v>0.39370078740157477</v>
       </c>
       <c r="G14" s="2">
-        <v>0.34246575342465752</v>
+        <v>0.44052863436123346</v>
       </c>
       <c r="H14" s="2">
-        <v>0.17953321364452424</v>
+        <v>0.81300813008130079</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="D15" s="2">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="E15" s="2">
-        <v>3.99</v>
+        <v>5.57</v>
       </c>
       <c r="F15" s="2">
-        <v>0.25062656641604009</v>
+        <v>0.63235294117647056</v>
       </c>
       <c r="G15" s="2">
-        <v>0.4098360655737705</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="H15" s="2">
-        <v>0.54545454545454541</v>
+        <v>0.17953321364452424</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -985,54 +985,54 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>7.81</v>
+        <v>0.38022813688212925</v>
       </c>
       <c r="D18" s="2">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="E18" s="2">
-        <v>0.42918454935622319</v>
+        <v>9.19</v>
       </c>
       <c r="F18" s="2">
-        <v>0.6996996996996997</v>
+        <v>0.72451790633608815</v>
       </c>
       <c r="G18" s="2">
-        <v>0.28985507246376813</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="H18" s="2">
-        <v>0.12804097311139565</v>
+        <v>0.1088139281828074</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>0.38022813688212925</v>
+        <v>0.81967213114754101</v>
       </c>
       <c r="D19" s="2">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="E19" s="2">
-        <v>9.19</v>
+        <v>3.84</v>
       </c>
       <c r="F19" s="2">
-        <v>0.72451790633608815</v>
+        <v>0.54954954954954949</v>
       </c>
       <c r="G19" s="2">
-        <v>0.27397260273972601</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="H19" s="2">
-        <v>0.1088139281828074</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1040,311 +1040,311 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>0.81967213114754101</v>
+        <v>0.21978021978021978</v>
       </c>
       <c r="D20" s="2">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="E20" s="2">
-        <v>3.84</v>
+        <v>12.86</v>
       </c>
       <c r="F20" s="2">
-        <v>0.54954954954954949</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="G20" s="2">
-        <v>0.38461538461538458</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="H20" s="2">
-        <v>0.26041666666666669</v>
+        <v>7.7760497667185069E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>0.21978021978021978</v>
+        <v>0.45045045045045046</v>
       </c>
       <c r="D21" s="2">
-        <v>5.8</v>
+        <v>3.84</v>
       </c>
       <c r="E21" s="2">
-        <v>12.86</v>
+        <v>6.28</v>
       </c>
       <c r="F21" s="2">
-        <v>0.81981981981981977</v>
+        <v>0.68944099378881984</v>
       </c>
       <c r="G21" s="2">
-        <v>0.17241379310344829</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="H21" s="2">
-        <v>7.7760497667185069E-2</v>
+        <v>0.15923566878980891</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>5.01</v>
+        <v>3.49</v>
       </c>
       <c r="D22" s="2">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="E22" s="2">
-        <v>0.6211180124223602</v>
+        <v>0.78740157480314965</v>
       </c>
       <c r="F22" s="2">
-        <v>0.61685823754789282</v>
+        <v>0.28653295128939826</v>
       </c>
       <c r="G22" s="2">
-        <v>0.34246575342465752</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="H22" s="2">
-        <v>0.19960079840319361</v>
+        <v>0.55947136563876654</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>0.45045045045045046</v>
+        <v>3.18</v>
       </c>
       <c r="D23" s="2">
-        <v>3.84</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E23" s="2">
-        <v>6.28</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="F23" s="2">
-        <v>0.68944099378881984</v>
+        <v>0.31446540880503143</v>
       </c>
       <c r="G23" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.40160642570281119</v>
       </c>
       <c r="H23" s="2">
-        <v>0.15923566878980891</v>
+        <v>0.51219512195121952</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
       <c r="C24" s="2">
-        <v>22.79</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="D24" s="2">
-        <v>10.17</v>
+        <v>3.32</v>
       </c>
       <c r="E24" s="2">
-        <v>0.1</v>
+        <v>6.47</v>
       </c>
       <c r="F24" s="2">
-        <v>0.90909090909090906</v>
+        <v>0.67105263157894735</v>
       </c>
       <c r="G24" s="2">
-        <v>9.8328416912487712E-2</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="H24" s="2">
-        <v>4.3878894251864857E-2</v>
+        <v>0.15455950540958269</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="D25" s="2">
         <v>3.49</v>
       </c>
-      <c r="D25" s="2">
-        <v>2.82</v>
-      </c>
       <c r="E25" s="2">
-        <v>0.78740157480314965</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="F25" s="2">
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="G25" s="2">
         <v>0.28653295128939826</v>
       </c>
-      <c r="G25" s="2">
-        <v>0.3546099290780142</v>
-      </c>
       <c r="H25" s="2">
-        <v>0.55947136563876654</v>
+        <v>0.16556291390728478</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="2">
         <v>2.13</v>
       </c>
       <c r="E26" s="2">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="F26" s="2">
-        <v>0.55865921787709494</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G26" s="2">
         <v>0.46948356807511737</v>
       </c>
       <c r="H26" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.46728971962616822</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>3.18</v>
+        <v>2.57</v>
       </c>
       <c r="D27" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="E27" s="2">
-        <v>0.95238095238095233</v>
+        <v>1.21</v>
       </c>
       <c r="F27" s="2">
-        <v>0.31446540880503143</v>
+        <v>0.38910505836575876</v>
       </c>
       <c r="G27" s="2">
-        <v>0.40160642570281119</v>
+        <v>0.44052863436123346</v>
       </c>
       <c r="H27" s="2">
-        <v>0.51219512195121952</v>
+        <v>0.82644628099173556</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>1.1399999999999999</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D28" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="E28" s="2">
-        <v>2.87</v>
+        <v>3.99</v>
       </c>
       <c r="F28" s="2">
-        <v>0.34843205574912889</v>
+        <v>0.25062656641604009</v>
       </c>
       <c r="G28" s="2">
-        <v>0.4587155963302752</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="H28" s="2">
-        <v>0.87719298245614041</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>0.49019607843137253</v>
+        <v>13.51</v>
       </c>
       <c r="D29" s="2">
-        <v>3.32</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>6.47</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="F29" s="2">
-        <v>0.67105263157894735</v>
+        <v>0.82638888888888895</v>
       </c>
       <c r="G29" s="2">
-        <v>0.30120481927710846</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H29" s="2">
-        <v>0.15455950540958269</v>
+        <v>7.4019245003700967E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.5</v>
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>7.19</v>
       </c>
       <c r="D30" s="2">
-        <v>2.13</v>
+        <v>3.57</v>
       </c>
       <c r="E30" s="2">
-        <v>2.14</v>
+        <v>0.44052863436123346</v>
       </c>
       <c r="F30" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.6941896024464832</v>
       </c>
       <c r="G30" s="2">
-        <v>0.46948356807511737</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="H30" s="2">
-        <v>0.46728971962616822</v>
+        <v>0.13908205841446453</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
-        <v>2.57</v>
+        <v>0.72992700729927007</v>
       </c>
       <c r="D31" s="2">
-        <v>2.27</v>
+        <v>2.64</v>
       </c>
       <c r="E31" s="2">
-        <v>1.21</v>
+        <v>4.43</v>
       </c>
       <c r="F31" s="2">
-        <v>0.38910505836575876</v>
+        <v>0.22573363431151244</v>
       </c>
       <c r="G31" s="2">
-        <v>0.44052863436123346</v>
+        <v>0.37878787878787878</v>
       </c>
       <c r="H31" s="2">
-        <v>0.82644628099173556</v>
+        <v>0.57805907172995785</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1401,422 +1401,422 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>3.26</v>
+        <v>4.5</v>
       </c>
       <c r="D34" s="2">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="E34" s="2">
-        <v>0.84745762711864403</v>
+        <v>0.72992700729927007</v>
       </c>
       <c r="F34" s="2">
-        <v>0.54128440366972475</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G34" s="2">
-        <v>0.35211267605633806</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="H34" s="2">
-        <v>0.30674846625766872</v>
+        <v>0.57805907172995785</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>13.51</v>
+        <v>2.71</v>
       </c>
       <c r="D35" s="2">
-        <v>6</v>
+        <v>2.14</v>
       </c>
       <c r="E35" s="2">
-        <v>0.21008403361344538</v>
+        <v>1.24</v>
       </c>
       <c r="F35" s="2">
-        <v>0.82638888888888895</v>
+        <v>0.36900369003690037</v>
       </c>
       <c r="G35" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.46728971962616822</v>
       </c>
       <c r="H35" s="2">
-        <v>7.4019245003700967E-2</v>
+        <v>0.80645161290322587</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
-        <v>4.5</v>
+        <v>4.34</v>
       </c>
       <c r="D36" s="2">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="E36" s="2">
-        <v>0.72992700729927007</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="F36" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="G36" s="2">
-        <v>0.38461538461538458</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="H36" s="2">
-        <v>0.57805907172995785</v>
+        <v>0.61685823754789282</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
-        <v>2.71</v>
+        <v>5.09</v>
       </c>
       <c r="D37" s="2">
-        <v>2.14</v>
+        <v>2.67</v>
       </c>
       <c r="E37" s="2">
-        <v>1.24</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F37" s="2">
-        <v>0.36900369003690037</v>
+        <v>0.19646365422396858</v>
       </c>
       <c r="G37" s="2">
-        <v>0.46728971962616822</v>
+        <v>0.37453183520599254</v>
       </c>
       <c r="H37" s="2">
-        <v>0.80645161290322587</v>
+        <v>0.60317460317460314</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2">
-        <v>0.72992700729927007</v>
+        <v>1.58</v>
       </c>
       <c r="D38" s="2">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="E38" s="2">
-        <v>4.43</v>
+        <v>1.85</v>
       </c>
       <c r="F38" s="2">
-        <v>0.22573363431151244</v>
+        <v>0.63291139240506322</v>
       </c>
       <c r="G38" s="2">
-        <v>0.37878787878787878</v>
+        <v>0.42372881355932207</v>
       </c>
       <c r="H38" s="2">
-        <v>0.57805907172995785</v>
+        <v>0.54054054054054046</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>4.34</v>
+        <v>1.75</v>
       </c>
       <c r="D39" s="2">
-        <v>3.28</v>
+        <v>2.13</v>
       </c>
       <c r="E39" s="2">
-        <v>0.6211180124223602</v>
+        <v>1.79</v>
       </c>
       <c r="F39" s="2">
-        <v>0.2304147465437788</v>
+        <v>0.55865921787709494</v>
       </c>
       <c r="G39" s="2">
-        <v>0.3048780487804878</v>
+        <v>0.46948356807511737</v>
       </c>
       <c r="H39" s="2">
-        <v>0.61685823754789282</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2">
-        <v>5.09</v>
+        <v>3.26</v>
       </c>
       <c r="D40" s="2">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="E40" s="2">
-        <v>0.65789473684210531</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="F40" s="2">
-        <v>0.19646365422396858</v>
+        <v>0.54128440366972475</v>
       </c>
       <c r="G40" s="2">
-        <v>0.37453183520599254</v>
+        <v>0.35211267605633806</v>
       </c>
       <c r="H40" s="2">
-        <v>0.60317460317460314</v>
+        <v>0.30674846625766872</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="D41" s="2">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="E41" s="2">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="F41" s="2">
-        <v>0.63291139240506322</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="G41" s="2">
-        <v>0.42372881355932207</v>
+        <v>0.41322314049586778</v>
       </c>
       <c r="H41" s="2">
-        <v>0.54054054054054046</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
-        <v>4.3</v>
+        <v>0.16</v>
       </c>
       <c r="D42" s="2">
-        <v>2.77</v>
+        <v>7.42</v>
       </c>
       <c r="E42" s="2">
-        <v>0.70921985815602839</v>
+        <v>16.43</v>
       </c>
       <c r="F42" s="2">
-        <v>0.58506224066390033</v>
+        <v>0.86206896551724144</v>
       </c>
       <c r="G42" s="2">
-        <v>0.36101083032490977</v>
+        <v>0.13477088948787061</v>
       </c>
       <c r="H42" s="2">
-        <v>0.23255813953488372</v>
+        <v>6.0864272671941569E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2">
-        <v>1.54</v>
+        <v>0.81300813008130079</v>
       </c>
       <c r="D43" s="2">
-        <v>2.42</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E43" s="2">
-        <v>1.84</v>
+        <v>4.01</v>
       </c>
       <c r="F43" s="2">
-        <v>0.64935064935064934</v>
+        <v>0.55156950672645744</v>
       </c>
       <c r="G43" s="2">
-        <v>0.41322314049586778</v>
+        <v>0.4081632653061224</v>
       </c>
       <c r="H43" s="2">
-        <v>0.54347826086956519</v>
+        <v>0.24937655860349128</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2">
-        <v>6.04</v>
+        <v>5.01</v>
       </c>
       <c r="D44" s="2">
-        <v>3.49</v>
+        <v>2.92</v>
       </c>
       <c r="E44" s="2">
-        <v>0.49019607843137253</v>
+        <v>0.6211180124223602</v>
       </c>
       <c r="F44" s="2">
-        <v>0.67105263157894735</v>
+        <v>0.61685823754789282</v>
       </c>
       <c r="G44" s="2">
-        <v>0.28653295128939826</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="H44" s="2">
-        <v>0.16556291390728478</v>
+        <v>0.19960079840319361</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2">
-        <v>0.16</v>
+        <v>1.21</v>
       </c>
       <c r="D45" s="2">
-        <v>7.42</v>
+        <v>2.31</v>
       </c>
       <c r="E45" s="2">
-        <v>16.43</v>
+        <v>2.52</v>
       </c>
       <c r="F45" s="2">
-        <v>0.86206896551724144</v>
+        <v>0.82644628099173556</v>
       </c>
       <c r="G45" s="2">
-        <v>0.13477088948787061</v>
+        <v>0.4329004329004329</v>
       </c>
       <c r="H45" s="2">
-        <v>6.0864272671941569E-2</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2">
-        <v>0.81300813008130079</v>
+        <v>0.78125</v>
       </c>
       <c r="D46" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="E46" s="2">
-        <v>4.01</v>
+        <v>4.09</v>
       </c>
       <c r="F46" s="2">
-        <v>0.55156950672645744</v>
+        <v>0.56140350877192979</v>
       </c>
       <c r="G46" s="2">
-        <v>0.4081632653061224</v>
+        <v>0.39370078740157477</v>
       </c>
       <c r="H46" s="2">
-        <v>0.24937655860349128</v>
+        <v>0.24449877750611249</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="D47" s="2">
-        <v>2.31</v>
+        <v>2.09</v>
       </c>
       <c r="E47" s="2">
-        <v>2.52</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F47" s="2">
-        <v>0.82644628099173556</v>
+        <v>0.68027210884353739</v>
       </c>
       <c r="G47" s="2">
-        <v>0.4329004329004329</v>
+        <v>0.47846889952153115</v>
       </c>
       <c r="H47" s="2">
-        <v>0.3968253968253968</v>
+        <v>0.4504504504504504</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2">
-        <v>0.78125</v>
+        <v>7.81</v>
       </c>
       <c r="D48" s="2">
-        <v>2.54</v>
+        <v>3.45</v>
       </c>
       <c r="E48" s="2">
-        <v>4.09</v>
+        <v>0.42918454935622319</v>
       </c>
       <c r="F48" s="2">
-        <v>0.56140350877192979</v>
+        <v>0.6996996996996997</v>
       </c>
       <c r="G48" s="2">
-        <v>0.39370078740157477</v>
+        <v>0.28985507246376813</v>
       </c>
       <c r="H48" s="2">
-        <v>0.24449877750611249</v>
+        <v>0.12804097311139565</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>1.47</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D49" s="2">
-        <v>2.09</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E49" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.87</v>
       </c>
       <c r="F49" s="2">
-        <v>0.68027210884353739</v>
+        <v>0.34843205574912889</v>
       </c>
       <c r="G49" s="2">
-        <v>0.47846889952153115</v>
+        <v>0.4587155963302752</v>
       </c>
       <c r="H49" s="2">
-        <v>0.4504504504504504</v>
+        <v>0.87719298245614041</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
     <sortCondition ref="A2:A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1825,18 +1825,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1972,6 +1972,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{121A2FD2-3483-4E54-A97B-05F57C376FE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6D795C2-3857-47BE-B443-415853A7D4B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1983,14 +1991,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{121A2FD2-3483-4E54-A97B-05F57C376FE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
